--- a/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_4_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>94.26562898355354</v>
+        <v>94.37347046252381</v>
       </c>
       <c r="D2" t="n">
-        <v>5.328102821113365</v>
+        <v>4.745199353471283</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>93.65722563424347</v>
+        <v>93.24310337169895</v>
       </c>
       <c r="D3" t="n">
-        <v>4.474696279384894</v>
+        <v>5.05707852227844</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>91.01615225890654</v>
+        <v>92.19068492239631</v>
       </c>
       <c r="D4" t="n">
-        <v>4.827171082963257</v>
+        <v>4.613342603767518</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.95268390153915</v>
+        <v>89.8719231382636</v>
       </c>
       <c r="D5" t="n">
-        <v>5.135889946020203</v>
+        <v>4.991759663528103</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.07218872255838</v>
+        <v>89.60599808955867</v>
       </c>
       <c r="D6" t="n">
-        <v>4.949505158593468</v>
+        <v>4.762957338278302</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.37259722654328</v>
+        <v>87.37471904259533</v>
       </c>
       <c r="D7" t="n">
-        <v>4.805033983061868</v>
+        <v>4.81418522465825</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.26767289767928</v>
+        <v>87.19255292036115</v>
       </c>
       <c r="D8" t="n">
-        <v>5.05695119876973</v>
+        <v>4.46914464042618</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>84.85576540190054</v>
+        <v>85.80851036111882</v>
       </c>
       <c r="D9" t="n">
-        <v>4.693021229556003</v>
+        <v>4.603585043239532</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>85.15637567889911</v>
+        <v>84.92686720170964</v>
       </c>
       <c r="D10" t="n">
-        <v>4.327391527248833</v>
+        <v>3.682394569234501</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.31645668686645</v>
+        <v>82.999533862025</v>
       </c>
       <c r="D11" t="n">
-        <v>4.263299494337984</v>
+        <v>4.030212385077825</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>81.90648431917974</v>
+        <v>82.63113789202362</v>
       </c>
       <c r="D12" t="n">
-        <v>5.027743514198079</v>
+        <v>4.928100420250914</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.58036541356697</v>
+        <v>81.63331748712915</v>
       </c>
       <c r="D13" t="n">
-        <v>4.729911706891277</v>
+        <v>4.545712544333796</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.24790221251035</v>
+        <v>80.77205418009741</v>
       </c>
       <c r="D14" t="n">
-        <v>4.728206540563724</v>
+        <v>4.778937314398532</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>79.47284909671771</v>
+        <v>79.06953415941891</v>
       </c>
       <c r="D15" t="n">
-        <v>5.134115382617729</v>
+        <v>4.175980883993984</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.18760462484958</v>
+        <v>78.66860069768092</v>
       </c>
       <c r="D16" t="n">
-        <v>4.35012844115826</v>
+        <v>4.553307982498645</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>77.44263000094769</v>
+        <v>77.10774810204931</v>
       </c>
       <c r="D17" t="n">
-        <v>4.916485617153379</v>
+        <v>4.638490889525018</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.51394999685435</v>
+        <v>76.09310174736676</v>
       </c>
       <c r="D18" t="n">
-        <v>5.236022913215365</v>
+        <v>5.126769192837138</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.32064683315163</v>
+        <v>75.34452098148873</v>
       </c>
       <c r="D19" t="n">
-        <v>4.954873325287987</v>
+        <v>4.757538685328588</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.04891036268381</v>
+        <v>74.45911940042301</v>
       </c>
       <c r="D20" t="n">
-        <v>4.688362351975793</v>
+        <v>4.810224433395739</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.11046526656726</v>
+        <v>72.05487239685425</v>
       </c>
       <c r="D21" t="n">
-        <v>4.362332155617056</v>
+        <v>4.274228700487069</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>73.10634721774422</v>
+        <v>71.48435037201912</v>
       </c>
       <c r="D22" t="n">
-        <v>4.770186935620793</v>
+        <v>4.498272250276802</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>72.00905158670056</v>
+        <v>70.96787504244993</v>
       </c>
       <c r="D23" t="n">
-        <v>4.871084620576181</v>
+        <v>4.25256568644869</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>70.31464383080048</v>
+        <v>68.96345959685304</v>
       </c>
       <c r="D24" t="n">
-        <v>5.168305083815706</v>
+        <v>4.915178460749634</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.00531151797918</v>
+        <v>68.75421249891745</v>
       </c>
       <c r="D25" t="n">
-        <v>5.128372594728319</v>
+        <v>5.235839675962471</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.39400994717455</v>
+        <v>67.11019932683142</v>
       </c>
       <c r="D26" t="n">
-        <v>4.355410789867605</v>
+        <v>4.627907649506155</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>66.29381099974071</v>
+        <v>67.2162684617807</v>
       </c>
       <c r="D27" t="n">
-        <v>4.837443314594302</v>
+        <v>4.627764106770351</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.29710616481415</v>
+        <v>65.22570843025463</v>
       </c>
       <c r="D28" t="n">
-        <v>5.152120937926858</v>
+        <v>4.304420025941969</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.84127197436349</v>
+        <v>63.41677896105497</v>
       </c>
       <c r="D29" t="n">
-        <v>4.679035928637102</v>
+        <v>4.713817826121796</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.15194887830528</v>
+        <v>63.29788431491572</v>
       </c>
       <c r="D30" t="n">
-        <v>4.81481063440074</v>
+        <v>4.164717399151907</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>62.9429639438886</v>
+        <v>62.32605302307896</v>
       </c>
       <c r="D31" t="n">
-        <v>5.063011990505436</v>
+        <v>4.023789121423244</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.55058704502412</v>
+        <v>60.84033116554515</v>
       </c>
       <c r="D32" t="n">
-        <v>4.623168050224149</v>
+        <v>4.988703150608178</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.55752232184919</v>
+        <v>60.37000026796086</v>
       </c>
       <c r="D33" t="n">
-        <v>3.667921330499533</v>
+        <v>4.893875799296419</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>59.14937031707035</v>
+        <v>58.59726030866434</v>
       </c>
       <c r="D34" t="n">
-        <v>4.751725771118792</v>
+        <v>3.967077228366976</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.50761355492486</v>
+        <v>57.88818700622993</v>
       </c>
       <c r="D35" t="n">
-        <v>4.657965619429695</v>
+        <v>4.094849200395783</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.97326530639949</v>
+        <v>56.81138449797007</v>
       </c>
       <c r="D36" t="n">
-        <v>4.339612677674687</v>
+        <v>4.348707211572767</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.56663874548332</v>
+        <v>55.92436069275745</v>
       </c>
       <c r="D37" t="n">
-        <v>4.909452011253463</v>
+        <v>4.014262619608035</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.52369764132726</v>
+        <v>54.77079718359839</v>
       </c>
       <c r="D38" t="n">
-        <v>5.259148672311974</v>
+        <v>4.427317160247062</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.03388351925187</v>
+        <v>53.90696157511704</v>
       </c>
       <c r="D39" t="n">
-        <v>4.826348759016605</v>
+        <v>4.801300101291043</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.25433962698273</v>
+        <v>52.62440073750594</v>
       </c>
       <c r="D40" t="n">
-        <v>4.516557078391427</v>
+        <v>4.056030391154902</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.21944412089279</v>
+        <v>51.52466301608074</v>
       </c>
       <c r="D41" t="n">
-        <v>4.739800792033449</v>
+        <v>3.840655815877635</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.8664243634807</v>
+        <v>49.52066782273213</v>
       </c>
       <c r="D42" t="n">
-        <v>4.59458730763002</v>
+        <v>3.928111240666955</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.8217831485279</v>
+        <v>49.41762129799414</v>
       </c>
       <c r="D43" t="n">
-        <v>4.435742639120411</v>
+        <v>4.077189058046079</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.42883600472444</v>
+        <v>48.76141227438149</v>
       </c>
       <c r="D44" t="n">
-        <v>4.370866406817863</v>
+        <v>4.774697718914523</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.46850568351085</v>
+        <v>47.23228346277119</v>
       </c>
       <c r="D45" t="n">
-        <v>4.786728108847063</v>
+        <v>4.525909901412841</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.2549150065395</v>
+        <v>46.36238744977135</v>
       </c>
       <c r="D46" t="n">
-        <v>4.831474028145767</v>
+        <v>4.937886878419426</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.07061942671397</v>
+        <v>45.30774539721531</v>
       </c>
       <c r="D47" t="n">
-        <v>4.612085705369784</v>
+        <v>4.407593982542621</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.78586674857366</v>
+        <v>44.00015018884906</v>
       </c>
       <c r="D48" t="n">
-        <v>4.445033925828049</v>
+        <v>4.132218150944625</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.76172925523688</v>
+        <v>43.24474759655596</v>
       </c>
       <c r="D49" t="n">
-        <v>5.383716320124923</v>
+        <v>5.14891112311858</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.86379161253366</v>
+        <v>42.31175388568074</v>
       </c>
       <c r="D50" t="n">
-        <v>5.078651418171458</v>
+        <v>3.660384597220866</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.45321151471455</v>
+        <v>40.68215319543675</v>
       </c>
       <c r="D51" t="n">
-        <v>4.786815674139258</v>
+        <v>4.764219431506938</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.07937268742662</v>
+        <v>40.1040049732141</v>
       </c>
       <c r="D52" t="n">
-        <v>4.487001060053792</v>
+        <v>4.438726660114206</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.64389170309773</v>
+        <v>39.21116315285923</v>
       </c>
       <c r="D53" t="n">
-        <v>4.737771008586131</v>
+        <v>4.159364477440509</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.12309086225883</v>
+        <v>38.17711201649261</v>
       </c>
       <c r="D54" t="n">
-        <v>4.542057537683817</v>
+        <v>4.50220598673917</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.72599143597043</v>
+        <v>36.43096755314826</v>
       </c>
       <c r="D55" t="n">
-        <v>5.089522534879137</v>
+        <v>4.051004408524225</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.98705214707218</v>
+        <v>35.81057019000412</v>
       </c>
       <c r="D56" t="n">
-        <v>4.774328337684883</v>
+        <v>4.529062489232502</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.76119892706902</v>
+        <v>34.99777612479412</v>
       </c>
       <c r="D57" t="n">
-        <v>4.156551432373716</v>
+        <v>4.346709396550811</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.92987155562613</v>
+        <v>34.02411857991567</v>
       </c>
       <c r="D58" t="n">
-        <v>4.835838730509058</v>
+        <v>3.944587612441061</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.92152770141647</v>
+        <v>33.04229093224066</v>
       </c>
       <c r="D59" t="n">
-        <v>4.664519279320413</v>
+        <v>4.07028174868149</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.74236796479391</v>
+        <v>31.56140175171438</v>
       </c>
       <c r="D60" t="n">
-        <v>4.408128813589841</v>
+        <v>4.573142937861268</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.04856670164139</v>
+        <v>30.50332025868558</v>
       </c>
       <c r="D61" t="n">
-        <v>4.583912092313419</v>
+        <v>4.58334191923422</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.98574185734921</v>
+        <v>29.75210936123938</v>
       </c>
       <c r="D62" t="n">
-        <v>4.778179756504864</v>
+        <v>4.321212176670081</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.04567513378467</v>
+        <v>28.8730489871093</v>
       </c>
       <c r="D63" t="n">
-        <v>4.544860487270175</v>
+        <v>4.5639275890548</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.37940896493928</v>
+        <v>28.22926315256235</v>
       </c>
       <c r="D64" t="n">
-        <v>4.428510421660336</v>
+        <v>5.095354430499936</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.54112504711463</v>
+        <v>26.80013299740667</v>
       </c>
       <c r="D65" t="n">
-        <v>4.458271544018219</v>
+        <v>4.523772721197029</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.07065896601561</v>
+        <v>25.71537044480181</v>
       </c>
       <c r="D66" t="n">
-        <v>4.438926852649758</v>
+        <v>3.789485246439038</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.10925584238113</v>
+        <v>24.8363337544281</v>
       </c>
       <c r="D67" t="n">
-        <v>4.607658030657058</v>
+        <v>4.80517819775912</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.03178027143336</v>
+        <v>24.13470661789098</v>
       </c>
       <c r="D68" t="n">
-        <v>4.639833330591271</v>
+        <v>4.782027819234812</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.00500983314253</v>
+        <v>22.57742531173901</v>
       </c>
       <c r="D69" t="n">
-        <v>4.560258212133943</v>
+        <v>4.669446684910748</v>
       </c>
     </row>
   </sheetData>
